--- a/Тестирование.xlsx
+++ b/Тестирование.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>https://docs.google.com/spreadsheets/d/1-g-gCfR2mBTc0PkMwdulBmEPj8gFFSGC74uhSccYAJs/edit?usp=sharing</t>
+    <t>https://docs.google.com/spreadsheets/d/1-g-gCfR2mBTc0PkMwdulBmEPj8gFFSGC74uhSccYAJs/edit#gid=1802566315</t>
   </si>
 </sst>
 </file>
@@ -365,25 +365,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" customWidth="1"/>
+    <col min="1" max="1" width="126.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:6">
-      <c r="F5" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="F5" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" location="gid=1802566315"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>

--- a/Тестирование.xlsx
+++ b/Тестирование.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>https://docs.google.com/spreadsheets/d/1-g-gCfR2mBTc0PkMwdulBmEPj8gFFSGC74uhSccYAJs/edit#gid=1802566315</t>
+    <t>https://docs.google.com/spreadsheets/d/1-g-gCfR2mBTc0PkMwdulBmEPj8gFFSGC74uhSccYAJs/edit#gid=0</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location="gid=1802566315"/>
+    <hyperlink ref="A1" r:id="rId1" location="gid=0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
